--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="627">
   <si>
     <t>ContentType</t>
   </si>
@@ -1795,9 +1795,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>03651</t>
-  </si>
-  <si>
     <t>Customer_Invoice</t>
   </si>
   <si>
@@ -1891,13 +1888,10 @@
     <t>Commemorative</t>
   </si>
   <si>
-    <t>Stamp_Inventory</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Stamp_Invoice</t>
+    <t>StampInventory</t>
+  </si>
+  <si>
+    <t>StampInvoice</t>
   </si>
 </sst>
 </file>
@@ -11259,8 +11253,8 @@
       <c r="B318" s="11">
         <v>70001.0</v>
       </c>
-      <c r="C318" s="19" t="s">
-        <v>594</v>
+      <c r="C318" s="46" t="s">
+        <v>367</v>
       </c>
       <c r="D318" s="55">
         <v>43530.0</v>
@@ -11298,7 +11292,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>1</v>
@@ -11464,7 +11458,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1</v>
@@ -11532,7 +11526,7 @@
       <c r="D332" s="5"/>
       <c r="E332" s="10"/>
       <c r="F332" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
@@ -11728,7 +11722,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1</v>
@@ -11747,19 +11741,19 @@
     </row>
     <row r="344">
       <c r="A344" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B344" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="B344" s="40" t="s">
+      <c r="C344" s="40" t="s">
         <v>600</v>
       </c>
-      <c r="C344" s="40" t="s">
+      <c r="D344" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="D344" s="40" t="s">
+      <c r="E344" s="80" t="s">
         <v>602</v>
-      </c>
-      <c r="E344" s="80" t="s">
-        <v>603</v>
       </c>
       <c r="F344" s="40" t="s">
         <v>2</v>
@@ -11771,16 +11765,16 @@
         <v>20</v>
       </c>
       <c r="I344" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="J344" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="J344" s="8" t="s">
+      <c r="K344" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="K344" s="8" t="s">
+      <c r="L344" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="L344" s="8" t="s">
-        <v>607</v>
       </c>
       <c r="M344" s="8" t="s">
         <v>593</v>
@@ -11817,10 +11811,10 @@
       </c>
       <c r="J345" s="63"/>
       <c r="K345" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L345" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M345" s="11">
         <v>1.0</v>
@@ -11852,10 +11846,10 @@
       </c>
       <c r="J346" s="63"/>
       <c r="K346" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L346" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M346" s="11">
         <v>1.0</v>
@@ -11893,10 +11887,10 @@
         <v>10000.0</v>
       </c>
       <c r="K347" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L347" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M347" s="11">
         <v>1.0</v>
@@ -11928,10 +11922,10 @@
       </c>
       <c r="J348" s="63"/>
       <c r="K348" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L348" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M348" s="11">
         <v>1.0</v>
@@ -11965,10 +11959,10 @@
       </c>
       <c r="J349" s="63"/>
       <c r="K349" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L349" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M349" s="11">
         <v>1.0</v>
@@ -12002,10 +11996,10 @@
       </c>
       <c r="J350" s="63"/>
       <c r="K350" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L350" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M350" s="11">
         <v>1.0</v>
@@ -12043,10 +12037,10 @@
         <v>3000.0</v>
       </c>
       <c r="K351" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L351" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M351" s="11">
         <v>1.0</v>
@@ -12084,10 +12078,10 @@
         <v>6000.0</v>
       </c>
       <c r="K352" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L352" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M352" s="11">
         <v>1.0</v>
@@ -12121,10 +12115,10 @@
       </c>
       <c r="J353" s="63"/>
       <c r="K353" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L353" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M353" s="11">
         <v>1.0</v>
@@ -12158,10 +12152,10 @@
       </c>
       <c r="J354" s="63"/>
       <c r="K354" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="L354" s="19" t="s">
         <v>608</v>
-      </c>
-      <c r="L354" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="M354" s="11">
         <v>1.0</v>
@@ -12186,7 +12180,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1</v>
@@ -12208,13 +12202,13 @@
         <v>589</v>
       </c>
       <c r="B357" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C357" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D357" s="87" t="s">
         <v>611</v>
-      </c>
-      <c r="D357" s="87" t="s">
-        <v>612</v>
       </c>
       <c r="E357" s="10" t="s">
         <v>5</v>
@@ -12256,7 +12250,7 @@
         <v>200.0</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E359" s="18"/>
       <c r="F359" s="37"/>
@@ -12313,7 +12307,7 @@
         <v>70.0</v>
       </c>
       <c r="D362" s="62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E362" s="18"/>
       <c r="F362" s="37"/>
@@ -12391,7 +12385,7 @@
         <v>58.0</v>
       </c>
       <c r="D366" s="62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E366" s="18"/>
       <c r="I366" s="5"/>
@@ -12411,7 +12405,7 @@
         <v>15.0</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E367" s="18"/>
       <c r="I367" s="5"/>
@@ -12454,7 +12448,7 @@
     </row>
     <row r="370">
       <c r="A370" s="91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1</v>
@@ -12475,7 +12469,7 @@
         <v>492</v>
       </c>
       <c r="B371" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>5</v>
@@ -12689,7 +12683,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1</v>
@@ -12704,7 +12698,7 @@
     </row>
     <row r="384">
       <c r="A384" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>538</v>
@@ -12716,7 +12710,7 @@
         <v>267</v>
       </c>
       <c r="E384" s="93" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F384" s="9" t="s">
         <v>5</v>
@@ -13800,7 +13794,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>1</v>
@@ -13809,13 +13803,13 @@
     </row>
     <row r="444">
       <c r="A444" s="57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B444" s="106" t="s">
         <v>33</v>
       </c>
       <c r="C444" s="107" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D444" s="108" t="s">
         <v>5</v>
@@ -13826,7 +13820,7 @@
         <v>35</v>
       </c>
       <c r="B445" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C445" s="17">
         <v>8.0</v>
@@ -13837,7 +13831,7 @@
         <v>37</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C446" s="17">
         <v>5.0</v>
@@ -13848,7 +13842,7 @@
         <v>39</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C447" s="11">
         <v>10.0</v>
@@ -13863,7 +13857,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B449" s="109" t="s">
         <v>1</v>
@@ -13872,10 +13866,10 @@
     </row>
     <row r="450">
       <c r="A450" s="57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B450" s="110" t="s">
-        <v>627</v>
+        <v>267</v>
       </c>
       <c r="C450" s="107" t="s">
         <v>593</v>
@@ -14031,7 +14025,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>1</v>
@@ -14045,7 +14039,7 @@
         <v>589</v>
       </c>
       <c r="B465" s="57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C465" s="54" t="s">
         <v>593</v>
